--- a/dataanalysis/data/predictions/1400/07281443_1444.xlsx
+++ b/dataanalysis/data/predictions/1400/07281443_1444.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="149">
   <si>
     <t>序号</t>
   </si>
@@ -97,6 +97,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-28</t>
   </si>
   <si>
@@ -458,12 +461,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -821,13 +818,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA73"/>
+  <dimension ref="A1:AB73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,19 +906,22 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -939,7 +939,7 @@
         <v>47318.82</v>
       </c>
       <c r="J2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -959,8 +959,23 @@
       <c r="P2">
         <v>-0.45</v>
       </c>
+      <c r="Q2">
+        <v>-1.98</v>
+      </c>
+      <c r="R2">
+        <v>5.08</v>
+      </c>
+      <c r="S2">
+        <v>1.6</v>
+      </c>
       <c r="V2" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -968,22 +983,25 @@
       <c r="Z2">
         <v>3.560706615447998</v>
       </c>
-      <c r="AA2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>300019</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>-0.14</v>
@@ -1001,7 +1019,7 @@
         <v>36385.13</v>
       </c>
       <c r="J3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K3">
         <v>14</v>
@@ -1021,8 +1039,23 @@
       <c r="P3">
         <v>-0.55</v>
       </c>
+      <c r="Q3">
+        <v>0.95</v>
+      </c>
+      <c r="R3">
+        <v>22.38</v>
+      </c>
+      <c r="S3">
+        <v>1.5</v>
+      </c>
       <c r="V3" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1030,22 +1063,25 @@
       <c r="Z3">
         <v>4.311532974243164</v>
       </c>
-      <c r="AA3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>300021</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>6.73</v>
@@ -1063,7 +1099,7 @@
         <v>137206.6</v>
       </c>
       <c r="J4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K4">
         <v>4</v>
@@ -1083,8 +1119,23 @@
       <c r="P4">
         <v>0.74</v>
       </c>
+      <c r="Q4">
+        <v>-4.74</v>
+      </c>
+      <c r="R4">
+        <v>6.96</v>
+      </c>
+      <c r="S4">
+        <v>2.05</v>
+      </c>
       <c r="V4" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1092,22 +1143,25 @@
       <c r="Z4">
         <v>3.980290651321411</v>
       </c>
-      <c r="AA4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>300066</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1125,7 +1179,7 @@
         <v>82381.84</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K5">
         <v>12</v>
@@ -1145,8 +1199,23 @@
       <c r="P5">
         <v>-0.64</v>
       </c>
+      <c r="Q5">
+        <v>-2.15</v>
+      </c>
+      <c r="R5">
+        <v>6.51</v>
+      </c>
+      <c r="S5">
+        <v>-0.31</v>
+      </c>
       <c r="V5" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1154,22 +1223,25 @@
       <c r="Z5">
         <v>1.858577609062195</v>
       </c>
-      <c r="AA5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>300086</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>3.55</v>
@@ -1187,7 +1259,7 @@
         <v>96804.2</v>
       </c>
       <c r="J6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -1207,8 +1279,23 @@
       <c r="P6">
         <v>0.44</v>
       </c>
+      <c r="Q6">
+        <v>0.76</v>
+      </c>
+      <c r="R6">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="S6">
+        <v>6.22</v>
+      </c>
       <c r="V6" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1216,22 +1303,25 @@
       <c r="Z6">
         <v>7.260288715362549</v>
       </c>
-      <c r="AA6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>300095</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>0.92</v>
@@ -1249,7 +1339,7 @@
         <v>37333.51</v>
       </c>
       <c r="J7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K7">
         <v>5</v>
@@ -1269,8 +1359,23 @@
       <c r="P7">
         <v>-0.3</v>
       </c>
+      <c r="Q7">
+        <v>-1</v>
+      </c>
+      <c r="R7">
+        <v>11.13</v>
+      </c>
+      <c r="S7">
+        <v>1.18</v>
+      </c>
       <c r="V7" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1278,22 +1383,25 @@
       <c r="Z7">
         <v>0.2964940071105957</v>
       </c>
-      <c r="AA7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>300158</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>2.99</v>
@@ -1311,7 +1419,7 @@
         <v>155654.44</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -1331,8 +1439,23 @@
       <c r="P8">
         <v>-0.44</v>
       </c>
+      <c r="Q8">
+        <v>6.66</v>
+      </c>
+      <c r="R8">
+        <v>7.79</v>
+      </c>
+      <c r="S8">
+        <v>7.6</v>
+      </c>
       <c r="V8" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1340,22 +1463,25 @@
       <c r="Z8">
         <v>3.324491500854492</v>
       </c>
-      <c r="AA8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>300224</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>-1.05</v>
@@ -1373,7 +1499,7 @@
         <v>95326.86</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1393,8 +1519,23 @@
       <c r="P9">
         <v>-0.63</v>
       </c>
+      <c r="Q9">
+        <v>-1.3</v>
+      </c>
+      <c r="R9">
+        <v>17.05</v>
+      </c>
+      <c r="S9">
+        <v>0.83</v>
+      </c>
       <c r="V9" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1402,22 +1543,25 @@
       <c r="Z9">
         <v>3.396628618240356</v>
       </c>
-      <c r="AA9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>300254</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>3.69</v>
@@ -1435,7 +1579,7 @@
         <v>45995.71</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K10">
         <v>4</v>
@@ -1455,8 +1599,23 @@
       <c r="P10">
         <v>0.21</v>
       </c>
+      <c r="Q10">
+        <v>3.28</v>
+      </c>
+      <c r="R10">
+        <v>12.55</v>
+      </c>
+      <c r="S10">
+        <v>6.27</v>
+      </c>
       <c r="V10" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1464,22 +1623,25 @@
       <c r="Z10">
         <v>0.6421605944633484</v>
       </c>
-      <c r="AA10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>300267</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>14.63</v>
@@ -1497,7 +1659,7 @@
         <v>148605.67</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1517,8 +1679,23 @@
       <c r="P11">
         <v>2.28</v>
       </c>
+      <c r="Q11">
+        <v>-1.84</v>
+      </c>
+      <c r="R11">
+        <v>4.5</v>
+      </c>
+      <c r="S11">
+        <v>4.41</v>
+      </c>
       <c r="V11" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1526,22 +1703,25 @@
       <c r="Z11">
         <v>4.062676906585693</v>
       </c>
-      <c r="AA11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>300283</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>4.5</v>
@@ -1559,7 +1739,7 @@
         <v>38680.32</v>
       </c>
       <c r="J12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K12">
         <v>7</v>
@@ -1579,8 +1759,23 @@
       <c r="P12">
         <v>0.9399999999999999</v>
       </c>
+      <c r="Q12">
+        <v>-2.21</v>
+      </c>
+      <c r="R12">
+        <v>7.98</v>
+      </c>
+      <c r="S12">
+        <v>4.18</v>
+      </c>
       <c r="V12" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1588,22 +1783,25 @@
       <c r="Z12">
         <v>3.223891496658325</v>
       </c>
-      <c r="AA12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>300322</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -1621,7 +1819,7 @@
         <v>279037.67</v>
       </c>
       <c r="J13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1641,8 +1839,23 @@
       <c r="P13">
         <v>9.52</v>
       </c>
+      <c r="Q13">
+        <v>-0.95</v>
+      </c>
+      <c r="R13">
+        <v>19.07</v>
+      </c>
+      <c r="S13">
+        <v>0.9</v>
+      </c>
       <c r="V13" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>1</v>
@@ -1650,22 +1863,25 @@
       <c r="Z13">
         <v>7.436409950256348</v>
       </c>
-      <c r="AA13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>300329</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>-4.08</v>
@@ -1683,7 +1899,7 @@
         <v>33710.92</v>
       </c>
       <c r="J14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1703,8 +1919,23 @@
       <c r="P14">
         <v>-1.19</v>
       </c>
+      <c r="Q14">
+        <v>-1.91</v>
+      </c>
+      <c r="R14">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="S14">
+        <v>4.15</v>
+      </c>
       <c r="V14" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1712,22 +1943,25 @@
       <c r="Z14">
         <v>3.552850723266602</v>
       </c>
-      <c r="AA14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>300363</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>4.44</v>
@@ -1745,7 +1979,7 @@
         <v>108678.13</v>
       </c>
       <c r="J15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -1765,8 +1999,23 @@
       <c r="P15">
         <v>0.17</v>
       </c>
+      <c r="Q15">
+        <v>2.58</v>
+      </c>
+      <c r="R15">
+        <v>26.25</v>
+      </c>
+      <c r="S15">
+        <v>6.23</v>
+      </c>
       <c r="V15" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1774,22 +2023,25 @@
       <c r="Z15">
         <v>1.684948563575745</v>
       </c>
-      <c r="AA15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>300378</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>-1.74</v>
@@ -1807,7 +2059,7 @@
         <v>138562.19</v>
       </c>
       <c r="J16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1827,8 +2079,23 @@
       <c r="P16">
         <v>-0.24</v>
       </c>
+      <c r="Q16">
+        <v>-0.52</v>
+      </c>
+      <c r="R16">
+        <v>52.61</v>
+      </c>
+      <c r="S16">
+        <v>6.18</v>
+      </c>
       <c r="V16" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1836,22 +2103,25 @@
       <c r="Z16">
         <v>1.606231927871704</v>
       </c>
-      <c r="AA16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>300414</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>1.64</v>
@@ -1869,7 +2139,7 @@
         <v>47160.34</v>
       </c>
       <c r="J17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K17">
         <v>11</v>
@@ -1889,8 +2159,23 @@
       <c r="P17">
         <v>0.33</v>
       </c>
+      <c r="Q17">
+        <v>11.4</v>
+      </c>
+      <c r="R17">
+        <v>17.19</v>
+      </c>
+      <c r="S17">
+        <v>20.89</v>
+      </c>
       <c r="V17" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -1898,22 +2183,25 @@
       <c r="Z17">
         <v>1.737444996833801</v>
       </c>
-      <c r="AA17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>300436</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>13.78</v>
@@ -1931,7 +2219,7 @@
         <v>143353.2</v>
       </c>
       <c r="J18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K18">
         <v>18</v>
@@ -1951,8 +2239,23 @@
       <c r="P18">
         <v>-0.5</v>
       </c>
+      <c r="Q18">
+        <v>8.18</v>
+      </c>
+      <c r="R18">
+        <v>98.8</v>
+      </c>
+      <c r="S18">
+        <v>15.8</v>
+      </c>
       <c r="V18" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -1960,22 +2263,25 @@
       <c r="Z18">
         <v>3.002215385437012</v>
       </c>
-      <c r="AA18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>300469</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>-7.33</v>
@@ -1993,7 +2299,7 @@
         <v>108829.72</v>
       </c>
       <c r="J19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K19">
         <v>10</v>
@@ -2013,8 +2319,23 @@
       <c r="P19">
         <v>-0.52</v>
       </c>
+      <c r="Q19">
+        <v>7.62</v>
+      </c>
+      <c r="R19">
+        <v>46.92</v>
+      </c>
+      <c r="S19">
+        <v>7.61</v>
+      </c>
       <c r="V19" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2022,22 +2343,25 @@
       <c r="Z19">
         <v>9.728890419006348</v>
       </c>
-      <c r="AA19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>300490</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>-2.19</v>
@@ -2055,7 +2379,7 @@
         <v>32931.67</v>
       </c>
       <c r="J20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -2075,8 +2399,23 @@
       <c r="P20">
         <v>-0.86</v>
       </c>
+      <c r="Q20">
+        <v>-1.22</v>
+      </c>
+      <c r="R20">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="S20">
+        <v>0.61</v>
+      </c>
       <c r="V20" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2084,22 +2423,25 @@
       <c r="Z20">
         <v>1.184745907783508</v>
       </c>
-      <c r="AA20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>300500</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>-0.96</v>
@@ -2117,7 +2459,7 @@
         <v>15460.86</v>
       </c>
       <c r="J21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -2137,8 +2479,23 @@
       <c r="P21">
         <v>-0.13</v>
       </c>
+      <c r="Q21">
+        <v>-1.42</v>
+      </c>
+      <c r="R21">
+        <v>13.46</v>
+      </c>
+      <c r="S21">
+        <v>0.37</v>
+      </c>
       <c r="V21" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2146,22 +2503,25 @@
       <c r="Z21">
         <v>6.915124416351318</v>
       </c>
-      <c r="AA21" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>300527</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>0.97</v>
@@ -2179,7 +2539,7 @@
         <v>56286.28</v>
       </c>
       <c r="J22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K22">
         <v>20</v>
@@ -2199,8 +2559,23 @@
       <c r="P22">
         <v>-0.2</v>
       </c>
+      <c r="Q22">
+        <v>4.1</v>
+      </c>
+      <c r="R22">
+        <v>12.44</v>
+      </c>
+      <c r="S22">
+        <v>8.93</v>
+      </c>
       <c r="V22" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2208,22 +2583,25 @@
       <c r="Z22">
         <v>2.507680177688599</v>
       </c>
-      <c r="AA22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>300528</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>20</v>
@@ -2241,7 +2619,7 @@
         <v>34482.27</v>
       </c>
       <c r="J23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K23">
         <v>4</v>
@@ -2261,8 +2639,23 @@
       <c r="P23">
         <v>2.43</v>
       </c>
+      <c r="Q23">
+        <v>20.02</v>
+      </c>
+      <c r="R23">
+        <v>21.1</v>
+      </c>
+      <c r="S23">
+        <v>20.02</v>
+      </c>
       <c r="V23" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
       </c>
       <c r="Y23">
         <v>1</v>
@@ -2270,22 +2663,25 @@
       <c r="Z23">
         <v>14.37061595916748</v>
       </c>
-      <c r="AA23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>300533</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>1.13</v>
@@ -2303,7 +2699,7 @@
         <v>48717.75</v>
       </c>
       <c r="J24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K24">
         <v>24</v>
@@ -2323,8 +2719,23 @@
       <c r="P24">
         <v>0.37</v>
       </c>
+      <c r="Q24">
+        <v>4.78</v>
+      </c>
+      <c r="R24">
+        <v>37.51</v>
+      </c>
+      <c r="S24">
+        <v>4.81</v>
+      </c>
       <c r="V24" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2332,22 +2743,25 @@
       <c r="Z24">
         <v>4.327234745025635</v>
       </c>
-      <c r="AA24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>300539</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>3.08</v>
@@ -2365,7 +2779,7 @@
         <v>112429.43</v>
       </c>
       <c r="J25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -2385,8 +2799,23 @@
       <c r="P25">
         <v>-0.89</v>
       </c>
+      <c r="Q25">
+        <v>19.1</v>
+      </c>
+      <c r="R25">
+        <v>29.72</v>
+      </c>
+      <c r="S25">
+        <v>21.6</v>
+      </c>
       <c r="V25" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2394,22 +2823,25 @@
       <c r="Z25">
         <v>3.752786159515381</v>
       </c>
-      <c r="AA25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>300548</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>1.77</v>
@@ -2427,7 +2859,7 @@
         <v>156298.83</v>
       </c>
       <c r="J26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K26">
         <v>10</v>
@@ -2447,8 +2879,23 @@
       <c r="P26">
         <v>0.05</v>
       </c>
+      <c r="Q26">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="R26">
+        <v>93.39</v>
+      </c>
+      <c r="S26">
+        <v>11.02</v>
+      </c>
       <c r="V26" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2456,22 +2903,25 @@
       <c r="Z26">
         <v>3.253103017807007</v>
       </c>
-      <c r="AA26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>300631</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>0.21</v>
@@ -2489,7 +2939,7 @@
         <v>42449.2</v>
       </c>
       <c r="J27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K27">
         <v>11</v>
@@ -2509,8 +2959,23 @@
       <c r="P27">
         <v>-0.45</v>
       </c>
+      <c r="Q27">
+        <v>-4.37</v>
+      </c>
+      <c r="R27">
+        <v>33.15</v>
+      </c>
+      <c r="S27">
+        <v>0.15</v>
+      </c>
       <c r="V27" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2518,22 +2983,25 @@
       <c r="Z27">
         <v>1.675714731216431</v>
       </c>
-      <c r="AA27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>300644</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>4.85</v>
@@ -2551,7 +3019,7 @@
         <v>55901.16</v>
       </c>
       <c r="J28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K28">
         <v>8</v>
@@ -2571,8 +3039,23 @@
       <c r="P28">
         <v>0.9399999999999999</v>
       </c>
+      <c r="Q28">
+        <v>2.42</v>
+      </c>
+      <c r="R28">
+        <v>35.27</v>
+      </c>
+      <c r="S28">
+        <v>4.63</v>
+      </c>
       <c r="V28" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2580,22 +3063,25 @@
       <c r="Z28">
         <v>2.884886741638184</v>
       </c>
-      <c r="AA28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>300683</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>-6.5</v>
@@ -2613,7 +3099,7 @@
         <v>79006.60000000001</v>
       </c>
       <c r="J29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K29">
         <v>6</v>
@@ -2633,8 +3119,23 @@
       <c r="P29">
         <v>-0.84</v>
       </c>
+      <c r="Q29">
+        <v>15.28</v>
+      </c>
+      <c r="R29">
+        <v>51.77</v>
+      </c>
+      <c r="S29">
+        <v>19.26</v>
+      </c>
       <c r="V29" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -2642,22 +3143,25 @@
       <c r="Z29">
         <v>3.168880701065063</v>
       </c>
-      <c r="AA29" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>300706</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>9.09</v>
@@ -2675,7 +3179,7 @@
         <v>163836.58</v>
       </c>
       <c r="J30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2695,8 +3199,23 @@
       <c r="P30">
         <v>-3.19</v>
       </c>
+      <c r="Q30">
+        <v>-5.42</v>
+      </c>
+      <c r="R30">
+        <v>35.92</v>
+      </c>
+      <c r="S30">
+        <v>-1.51</v>
+      </c>
       <c r="V30" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>1</v>
@@ -2704,22 +3223,25 @@
       <c r="Z30">
         <v>3.403332471847534</v>
       </c>
-      <c r="AA30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>300722</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>1.06</v>
@@ -2737,7 +3259,7 @@
         <v>59109.41</v>
       </c>
       <c r="J31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K31">
         <v>6</v>
@@ -2757,8 +3279,23 @@
       <c r="P31">
         <v>0.2</v>
       </c>
+      <c r="Q31">
+        <v>4.88</v>
+      </c>
+      <c r="R31">
+        <v>40.13</v>
+      </c>
+      <c r="S31">
+        <v>5.38</v>
+      </c>
       <c r="V31" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>1</v>
@@ -2766,22 +3303,25 @@
       <c r="Z31">
         <v>4.050169467926025</v>
       </c>
-      <c r="AA31" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>300747</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32">
         <v>11.46</v>
@@ -2799,7 +3339,7 @@
         <v>196597.06</v>
       </c>
       <c r="J32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K32">
         <v>8</v>
@@ -2819,8 +3359,23 @@
       <c r="P32">
         <v>-0.52</v>
       </c>
+      <c r="Q32">
+        <v>1.9</v>
+      </c>
+      <c r="R32">
+        <v>30.47</v>
+      </c>
+      <c r="S32">
+        <v>3.71</v>
+      </c>
       <c r="V32" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>1</v>
@@ -2828,22 +3383,25 @@
       <c r="Z32">
         <v>6.784489154815674</v>
       </c>
-      <c r="AA32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>300748</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>-0.63</v>
@@ -2861,7 +3419,7 @@
         <v>167468.19</v>
       </c>
       <c r="J33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K33">
         <v>12</v>
@@ -2881,8 +3439,23 @@
       <c r="P33">
         <v>-0.25</v>
       </c>
+      <c r="Q33">
+        <v>-1.47</v>
+      </c>
+      <c r="R33">
+        <v>28.43</v>
+      </c>
+      <c r="S33">
+        <v>-0.32</v>
+      </c>
       <c r="V33" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>1</v>
@@ -2890,22 +3463,25 @@
       <c r="Z33">
         <v>4.079633712768555</v>
       </c>
-      <c r="AA33" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>300803</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>1.53</v>
@@ -2923,7 +3499,7 @@
         <v>380600.63</v>
       </c>
       <c r="J34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K34">
         <v>22</v>
@@ -2943,8 +3519,23 @@
       <c r="P34">
         <v>-0.22</v>
       </c>
+      <c r="Q34">
+        <v>0.16</v>
+      </c>
+      <c r="R34">
+        <v>94.7</v>
+      </c>
+      <c r="S34">
+        <v>1.03</v>
+      </c>
       <c r="V34" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -2952,22 +3543,25 @@
       <c r="Z34">
         <v>4.574795722961426</v>
       </c>
-      <c r="AA34" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>300835</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>4.58</v>
@@ -2985,7 +3579,7 @@
         <v>87198.86</v>
       </c>
       <c r="J35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K35">
         <v>5</v>
@@ -3005,8 +3599,23 @@
       <c r="P35">
         <v>-0.01</v>
       </c>
+      <c r="Q35">
+        <v>-1.91</v>
+      </c>
+      <c r="R35">
+        <v>62.24</v>
+      </c>
+      <c r="S35">
+        <v>4.48</v>
+      </c>
       <c r="V35" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -3014,22 +3623,25 @@
       <c r="Z35">
         <v>4.114193916320801</v>
       </c>
-      <c r="AA35" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>300869</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>-0.53</v>
@@ -3047,7 +3659,7 @@
         <v>104485.91</v>
       </c>
       <c r="J36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -3067,8 +3679,23 @@
       <c r="P36">
         <v>-0.17</v>
       </c>
+      <c r="Q36">
+        <v>-4.3</v>
+      </c>
+      <c r="R36">
+        <v>19.78</v>
+      </c>
+      <c r="S36">
+        <v>5.66</v>
+      </c>
       <c r="V36" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>1</v>
@@ -3076,22 +3703,25 @@
       <c r="Z36">
         <v>8.378627777099609</v>
       </c>
-      <c r="AA36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>300872</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>4.94</v>
@@ -3109,7 +3739,7 @@
         <v>193264.82</v>
       </c>
       <c r="J37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -3129,8 +3759,23 @@
       <c r="P37">
         <v>1.71</v>
       </c>
+      <c r="Q37">
+        <v>1.58</v>
+      </c>
+      <c r="R37">
+        <v>27.76</v>
+      </c>
+      <c r="S37">
+        <v>2.89</v>
+      </c>
       <c r="V37" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -3138,22 +3783,25 @@
       <c r="Z37">
         <v>3.363234519958496</v>
       </c>
-      <c r="AA37" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>300877</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>-1.75</v>
@@ -3171,7 +3819,7 @@
         <v>30995.17</v>
       </c>
       <c r="J38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -3191,8 +3839,23 @@
       <c r="P38">
         <v>-0.29</v>
       </c>
+      <c r="Q38">
+        <v>0.31</v>
+      </c>
+      <c r="R38">
+        <v>26.3</v>
+      </c>
+      <c r="S38">
+        <v>3.91</v>
+      </c>
       <c r="V38" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -3200,22 +3863,25 @@
       <c r="Z38">
         <v>5.377964019775391</v>
       </c>
-      <c r="AA38" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>300885</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39">
         <v>-2.68</v>
@@ -3233,7 +3899,7 @@
         <v>51424.74</v>
       </c>
       <c r="J39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K39">
         <v>4</v>
@@ -3253,8 +3919,23 @@
       <c r="P39">
         <v>-0.77</v>
       </c>
+      <c r="Q39">
+        <v>20.01</v>
+      </c>
+      <c r="R39">
+        <v>20.51</v>
+      </c>
+      <c r="S39">
+        <v>20.22</v>
+      </c>
       <c r="V39" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3262,22 +3943,25 @@
       <c r="Z39">
         <v>1.25341260433197</v>
       </c>
-      <c r="AA39" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>300950</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>6.58</v>
@@ -3295,7 +3979,7 @@
         <v>61835.19</v>
       </c>
       <c r="J40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -3315,8 +3999,23 @@
       <c r="P40">
         <v>1.72</v>
       </c>
+      <c r="Q40">
+        <v>-2.7</v>
+      </c>
+      <c r="R40">
+        <v>32.57</v>
+      </c>
+      <c r="S40">
+        <v>1.02</v>
+      </c>
       <c r="V40" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3324,22 +4023,25 @@
       <c r="Z40">
         <v>4.660402774810791</v>
       </c>
-      <c r="AA40" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>300955</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <v>2.12</v>
@@ -3357,7 +4059,7 @@
         <v>26261.51</v>
       </c>
       <c r="J41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -3377,8 +4079,23 @@
       <c r="P41">
         <v>0.15</v>
       </c>
+      <c r="Q41">
+        <v>-5.45</v>
+      </c>
+      <c r="R41">
+        <v>22.88</v>
+      </c>
+      <c r="S41">
+        <v>1.28</v>
+      </c>
       <c r="V41" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -3386,22 +4103,25 @@
       <c r="Z41">
         <v>3.971092700958252</v>
       </c>
-      <c r="AA41" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>301007</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42">
         <v>-0.11</v>
@@ -3419,7 +4139,7 @@
         <v>81233.09</v>
       </c>
       <c r="J42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -3439,8 +4159,23 @@
       <c r="P42">
         <v>-1.15</v>
       </c>
+      <c r="Q42">
+        <v>10.4</v>
+      </c>
+      <c r="R42">
+        <v>38.88</v>
+      </c>
+      <c r="S42">
+        <v>11.79</v>
+      </c>
       <c r="V42" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
       </c>
       <c r="Y42">
         <v>1</v>
@@ -3448,22 +4183,25 @@
       <c r="Z42">
         <v>3.905495882034302</v>
       </c>
-      <c r="AA42" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>301132</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43">
         <v>6.87</v>
@@ -3481,7 +4219,7 @@
         <v>66140.19</v>
       </c>
       <c r="J43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -3501,8 +4239,23 @@
       <c r="P43">
         <v>1.53</v>
       </c>
+      <c r="Q43">
+        <v>1.6</v>
+      </c>
+      <c r="R43">
+        <v>40.46</v>
+      </c>
+      <c r="S43">
+        <v>4.82</v>
+      </c>
       <c r="V43" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -3510,22 +4263,25 @@
       <c r="Z43">
         <v>4.451087474822998</v>
       </c>
-      <c r="AA43" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>301150</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>9.76</v>
@@ -3543,7 +4299,7 @@
         <v>63783.91</v>
       </c>
       <c r="J44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -3563,8 +4319,23 @@
       <c r="P44">
         <v>0.48</v>
       </c>
+      <c r="Q44">
+        <v>2.86</v>
+      </c>
+      <c r="R44">
+        <v>28.95</v>
+      </c>
+      <c r="S44">
+        <v>10.5</v>
+      </c>
       <c r="V44" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>1</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -3572,22 +4343,25 @@
       <c r="Z44">
         <v>8.574094772338867</v>
       </c>
-      <c r="AA44" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>301151</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>2.99</v>
@@ -3605,7 +4379,7 @@
         <v>27576.72</v>
       </c>
       <c r="J45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K45">
         <v>4</v>
@@ -3625,8 +4399,23 @@
       <c r="P45">
         <v>-0.36</v>
       </c>
+      <c r="Q45">
+        <v>0.44</v>
+      </c>
+      <c r="R45">
+        <v>23.74</v>
+      </c>
+      <c r="S45">
+        <v>4.4</v>
+      </c>
       <c r="V45" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -3634,22 +4423,25 @@
       <c r="Z45">
         <v>3.342489004135132</v>
       </c>
-      <c r="AA45" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46">
         <v>301176</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46">
         <v>6.71</v>
@@ -3667,7 +4459,7 @@
         <v>49206.73</v>
       </c>
       <c r="J46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -3687,8 +4479,23 @@
       <c r="P46">
         <v>1.55</v>
       </c>
+      <c r="Q46">
+        <v>-0.06</v>
+      </c>
+      <c r="R46">
+        <v>34.8</v>
+      </c>
+      <c r="S46">
+        <v>5.23</v>
+      </c>
       <c r="V46" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -3696,22 +4503,25 @@
       <c r="Z46">
         <v>3.543420314788818</v>
       </c>
-      <c r="AA46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47">
         <v>301183</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>0.62</v>
@@ -3729,7 +4539,7 @@
         <v>42594.04</v>
       </c>
       <c r="J47" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K47">
         <v>9</v>
@@ -3749,8 +4559,23 @@
       <c r="P47">
         <v>0.89</v>
       </c>
+      <c r="Q47">
+        <v>1.71</v>
+      </c>
+      <c r="R47">
+        <v>69.39</v>
+      </c>
+      <c r="S47">
+        <v>5.04</v>
+      </c>
       <c r="V47" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
       </c>
       <c r="Y47">
         <v>1</v>
@@ -3758,22 +4583,25 @@
       <c r="Z47">
         <v>6.083278656005859</v>
       </c>
-      <c r="AA47" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48">
         <v>301200</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48">
         <v>19.99</v>
@@ -3791,7 +4619,7 @@
         <v>102420.5</v>
       </c>
       <c r="J48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K48">
         <v>3</v>
@@ -3811,8 +4639,23 @@
       <c r="P48">
         <v>1.61</v>
       </c>
+      <c r="Q48">
+        <v>2.95</v>
+      </c>
+      <c r="R48">
+        <v>73.76000000000001</v>
+      </c>
+      <c r="S48">
+        <v>6.68</v>
+      </c>
       <c r="V48" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
       </c>
       <c r="Y48">
         <v>1</v>
@@ -3820,22 +4663,25 @@
       <c r="Z48">
         <v>6.379768371582031</v>
       </c>
-      <c r="AA48" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AA48">
+        <v>1</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>301217</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49">
         <v>20</v>
@@ -3853,7 +4699,7 @@
         <v>203293.25</v>
       </c>
       <c r="J49" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K49">
         <v>16</v>
@@ -3873,8 +4719,23 @@
       <c r="P49">
         <v>0.52</v>
       </c>
+      <c r="Q49">
+        <v>6.78</v>
+      </c>
+      <c r="R49">
+        <v>28.5</v>
+      </c>
+      <c r="S49">
+        <v>13.64</v>
+      </c>
       <c r="V49" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>1</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -3882,22 +4743,25 @@
       <c r="Z49">
         <v>13.45779037475586</v>
       </c>
-      <c r="AA49" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50">
         <v>301285</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50">
         <v>13.42</v>
@@ -3915,7 +4779,7 @@
         <v>68378.05</v>
       </c>
       <c r="J50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -3935,8 +4799,23 @@
       <c r="P50">
         <v>-0.14</v>
       </c>
+      <c r="Q50">
+        <v>-0.43</v>
+      </c>
+      <c r="R50">
+        <v>45.3</v>
+      </c>
+      <c r="S50">
+        <v>2.26</v>
+      </c>
       <c r="V50" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -3944,22 +4823,25 @@
       <c r="Z50">
         <v>9.488649368286133</v>
       </c>
-      <c r="AA50" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51">
         <v>301306</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51">
         <v>12.12</v>
@@ -3977,7 +4859,7 @@
         <v>62104.75</v>
       </c>
       <c r="J51" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K51">
         <v>4</v>
@@ -3997,8 +4879,23 @@
       <c r="P51">
         <v>1.17</v>
       </c>
+      <c r="Q51">
+        <v>3.12</v>
+      </c>
+      <c r="R51">
+        <v>68.39</v>
+      </c>
+      <c r="S51">
+        <v>6.86</v>
+      </c>
       <c r="V51" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -4006,22 +4903,25 @@
       <c r="Z51">
         <v>5.124234676361084</v>
       </c>
-      <c r="AA51" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>301345</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52">
         <v>-1.77</v>
@@ -4039,7 +4939,7 @@
         <v>40365.1</v>
       </c>
       <c r="J52" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -4059,8 +4959,23 @@
       <c r="P52">
         <v>-0.12</v>
       </c>
+      <c r="Q52">
+        <v>1.62</v>
+      </c>
+      <c r="R52">
+        <v>164.43</v>
+      </c>
+      <c r="S52">
+        <v>3.87</v>
+      </c>
       <c r="V52" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
       </c>
       <c r="Y52">
         <v>0</v>
@@ -4068,22 +4983,25 @@
       <c r="Z52">
         <v>5.145682334899902</v>
       </c>
-      <c r="AA52" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53">
         <v>301377</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E53">
         <v>14.82</v>
@@ -4101,7 +5019,7 @@
         <v>62951</v>
       </c>
       <c r="J53" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K53">
         <v>10</v>
@@ -4121,8 +5039,23 @@
       <c r="P53">
         <v>0.63</v>
       </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>56.1</v>
+      </c>
+      <c r="S53">
+        <v>0.04</v>
+      </c>
       <c r="V53" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
       </c>
       <c r="Y53">
         <v>0</v>
@@ -4130,22 +5063,25 @@
       <c r="Z53">
         <v>4.742832183837891</v>
       </c>
-      <c r="AA53" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54">
         <v>301389</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E54">
         <v>6.1</v>
@@ -4163,7 +5099,7 @@
         <v>80650.42999999999</v>
       </c>
       <c r="J54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K54">
         <v>15</v>
@@ -4183,8 +5119,23 @@
       <c r="P54">
         <v>2.64</v>
       </c>
+      <c r="Q54">
+        <v>3.32</v>
+      </c>
+      <c r="R54">
+        <v>37.43</v>
+      </c>
+      <c r="S54">
+        <v>7.59</v>
+      </c>
       <c r="V54" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>1</v>
       </c>
       <c r="Y54">
         <v>0</v>
@@ -4192,22 +5143,25 @@
       <c r="Z54">
         <v>3.424392461776733</v>
       </c>
-      <c r="AA54" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55">
         <v>301421</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E55">
         <v>-1.83</v>
@@ -4225,7 +5179,7 @@
         <v>64821.24</v>
       </c>
       <c r="J55" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K55">
         <v>26</v>
@@ -4245,8 +5199,23 @@
       <c r="P55">
         <v>0.01</v>
       </c>
+      <c r="Q55">
+        <v>-2.22</v>
+      </c>
+      <c r="R55">
+        <v>83.3</v>
+      </c>
+      <c r="S55">
+        <v>3.07</v>
+      </c>
       <c r="V55" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
       </c>
       <c r="Y55">
         <v>0</v>
@@ -4254,22 +5223,25 @@
       <c r="Z55">
         <v>6.546824932098389</v>
       </c>
-      <c r="AA55" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>301511</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E56">
         <v>11.56</v>
@@ -4287,7 +5259,7 @@
         <v>173407.33</v>
       </c>
       <c r="J56" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K56">
         <v>25</v>
@@ -4307,8 +5279,23 @@
       <c r="P56">
         <v>-0.5</v>
       </c>
+      <c r="Q56">
+        <v>10.02</v>
+      </c>
+      <c r="R56">
+        <v>35.44</v>
+      </c>
+      <c r="S56">
+        <v>14.77</v>
+      </c>
       <c r="V56" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W56">
+        <v>1</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
       </c>
       <c r="Y56">
         <v>1</v>
@@ -4316,22 +5303,25 @@
       <c r="Z56">
         <v>3.030267477035522</v>
       </c>
-      <c r="AA56" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>301526</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E57">
         <v>2.7</v>
@@ -4349,7 +5339,7 @@
         <v>49048.95</v>
       </c>
       <c r="J57" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K57">
         <v>15</v>
@@ -4369,8 +5359,23 @@
       <c r="P57">
         <v>0.44</v>
       </c>
+      <c r="Q57">
+        <v>1.21</v>
+      </c>
+      <c r="R57">
+        <v>5.19</v>
+      </c>
+      <c r="S57">
+        <v>5.06</v>
+      </c>
       <c r="V57" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
       </c>
       <c r="Y57">
         <v>0</v>
@@ -4378,22 +5383,25 @@
       <c r="Z57">
         <v>1.134751439094543</v>
       </c>
-      <c r="AA57" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>301529</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E58">
         <v>0.96</v>
@@ -4411,7 +5419,7 @@
         <v>39076.14</v>
       </c>
       <c r="J58" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K58">
         <v>6</v>
@@ -4431,8 +5439,23 @@
       <c r="P58">
         <v>0.93</v>
       </c>
+      <c r="Q58">
+        <v>-4</v>
+      </c>
+      <c r="R58">
+        <v>62.36</v>
+      </c>
+      <c r="S58">
+        <v>2.06</v>
+      </c>
       <c r="V58" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
       </c>
       <c r="Y58">
         <v>0</v>
@@ -4440,22 +5463,25 @@
       <c r="Z58">
         <v>4.189187049865723</v>
       </c>
-      <c r="AA58" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>301556</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59">
         <v>-1.87</v>
@@ -4473,7 +5499,7 @@
         <v>27952.28</v>
       </c>
       <c r="J59" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -4493,8 +5519,23 @@
       <c r="P59">
         <v>-0.34</v>
       </c>
+      <c r="Q59">
+        <v>1.05</v>
+      </c>
+      <c r="R59">
+        <v>124</v>
+      </c>
+      <c r="S59">
+        <v>3.67</v>
+      </c>
       <c r="V59" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
       </c>
       <c r="Y59">
         <v>0</v>
@@ -4502,22 +5543,25 @@
       <c r="Z59">
         <v>3.483857154846191</v>
       </c>
-      <c r="AA59" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60">
         <v>301580</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60">
         <v>16.36</v>
@@ -4535,7 +5579,7 @@
         <v>75043.82000000001</v>
       </c>
       <c r="J60" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -4555,8 +5599,23 @@
       <c r="P60">
         <v>2.56</v>
       </c>
+      <c r="Q60">
+        <v>-6.3</v>
+      </c>
+      <c r="R60">
+        <v>58.43</v>
+      </c>
+      <c r="S60">
+        <v>2.96</v>
+      </c>
       <c r="V60" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
       </c>
       <c r="Y60">
         <v>1</v>
@@ -4564,22 +5623,25 @@
       <c r="Z60">
         <v>3.427588701248169</v>
       </c>
-      <c r="AA60" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27">
+      <c r="AA60">
+        <v>1</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61">
         <v>301626</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E61">
         <v>-1.06</v>
@@ -4597,7 +5659,7 @@
         <v>32342</v>
       </c>
       <c r="J61" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K61">
         <v>5</v>
@@ -4617,8 +5679,23 @@
       <c r="P61">
         <v>-0.52</v>
       </c>
+      <c r="Q61">
+        <v>0.68</v>
+      </c>
+      <c r="R61">
+        <v>149.85</v>
+      </c>
+      <c r="S61">
+        <v>4.48</v>
+      </c>
       <c r="V61" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
       </c>
       <c r="Y61">
         <v>0</v>
@@ -4626,22 +5703,25 @@
       <c r="Z61">
         <v>4.491220951080322</v>
       </c>
-      <c r="AA61" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27">
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C62">
         <v>688117</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E62">
         <v>1.61</v>
@@ -4659,7 +5739,7 @@
         <v>34096.9</v>
       </c>
       <c r="J62" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K62">
         <v>10</v>
@@ -4679,8 +5759,23 @@
       <c r="P62">
         <v>0.41</v>
       </c>
+      <c r="Q62">
+        <v>0.43</v>
+      </c>
+      <c r="R62">
+        <v>42.79</v>
+      </c>
+      <c r="S62">
+        <v>2.89</v>
+      </c>
       <c r="V62" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
       </c>
       <c r="Y62">
         <v>0</v>
@@ -4688,22 +5783,25 @@
       <c r="Z62">
         <v>1.531548500061035</v>
       </c>
-      <c r="AA62" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27">
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C63">
         <v>688155</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E63">
         <v>-0.13</v>
@@ -4721,7 +5819,7 @@
         <v>40463.85</v>
       </c>
       <c r="J63" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K63">
         <v>4</v>
@@ -4741,8 +5839,23 @@
       <c r="P63">
         <v>-0.15</v>
       </c>
+      <c r="Q63">
+        <v>2.41</v>
+      </c>
+      <c r="R63">
+        <v>57.73</v>
+      </c>
+      <c r="S63">
+        <v>4.04</v>
+      </c>
       <c r="V63" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
       </c>
       <c r="Y63">
         <v>1</v>
@@ -4750,22 +5863,25 @@
       <c r="Z63">
         <v>10.44668292999268</v>
       </c>
-      <c r="AA63" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27">
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C64">
         <v>688202</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E64">
         <v>3.09</v>
@@ -4783,7 +5899,7 @@
         <v>69718.38</v>
       </c>
       <c r="J64" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K64">
         <v>15</v>
@@ -4803,8 +5919,23 @@
       <c r="P64">
         <v>-1.03</v>
       </c>
+      <c r="Q64">
+        <v>0.42</v>
+      </c>
+      <c r="R64">
+        <v>69.5</v>
+      </c>
+      <c r="S64">
+        <v>4.04</v>
+      </c>
       <c r="V64" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
       </c>
       <c r="Y64">
         <v>0</v>
@@ -4812,22 +5943,25 @@
       <c r="Z64">
         <v>8.147299766540527</v>
       </c>
-      <c r="AA64" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27">
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C65">
         <v>688210</v>
       </c>
       <c r="D65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E65">
         <v>-4.07</v>
@@ -4845,7 +5979,7 @@
         <v>45362.4</v>
       </c>
       <c r="J65" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K65">
         <v>3</v>
@@ -4865,8 +5999,23 @@
       <c r="P65">
         <v>-0.48</v>
       </c>
+      <c r="Q65">
+        <v>8.08</v>
+      </c>
+      <c r="R65">
+        <v>36.88</v>
+      </c>
+      <c r="S65">
+        <v>10.22</v>
+      </c>
       <c r="V65" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>1</v>
       </c>
       <c r="Y65">
         <v>0</v>
@@ -4874,22 +6023,25 @@
       <c r="Z65">
         <v>6.360846996307373</v>
       </c>
-      <c r="AA65" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27">
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C66">
         <v>688221</v>
       </c>
       <c r="D66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E66">
         <v>3.94</v>
@@ -4907,7 +6059,7 @@
         <v>72316.92</v>
       </c>
       <c r="J66" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -4927,8 +6079,23 @@
       <c r="P66">
         <v>-0.59</v>
       </c>
+      <c r="Q66">
+        <v>9.74</v>
+      </c>
+      <c r="R66">
+        <v>23.2</v>
+      </c>
+      <c r="S66">
+        <v>14.29</v>
+      </c>
       <c r="V66" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>1</v>
       </c>
       <c r="Y66">
         <v>0</v>
@@ -4936,22 +6103,25 @@
       <c r="Z66">
         <v>3.884106397628784</v>
       </c>
-      <c r="AA66" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27">
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C67">
         <v>688222</v>
       </c>
       <c r="D67" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67">
         <v>-0.39</v>
@@ -4969,7 +6139,7 @@
         <v>45236.74</v>
       </c>
       <c r="J67" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K67">
         <v>7</v>
@@ -4989,8 +6159,23 @@
       <c r="P67">
         <v>-0.16</v>
       </c>
+      <c r="Q67">
+        <v>4.13</v>
+      </c>
+      <c r="R67">
+        <v>24.32</v>
+      </c>
+      <c r="S67">
+        <v>6.85</v>
+      </c>
       <c r="V67" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
       </c>
       <c r="Y67">
         <v>0</v>
@@ -4998,22 +6183,25 @@
       <c r="Z67">
         <v>5.449701309204102</v>
       </c>
-      <c r="AA67" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27">
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C68">
         <v>688313</v>
       </c>
       <c r="D68" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68">
         <v>9.199999999999999</v>
@@ -5031,7 +6219,7 @@
         <v>199071.67</v>
       </c>
       <c r="J68" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K68">
         <v>29</v>
@@ -5051,8 +6239,23 @@
       <c r="P68">
         <v>0.45</v>
       </c>
+      <c r="Q68">
+        <v>10</v>
+      </c>
+      <c r="R68">
+        <v>66.95</v>
+      </c>
+      <c r="S68">
+        <v>10.19</v>
+      </c>
       <c r="V68" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W68">
+        <v>1</v>
+      </c>
+      <c r="X68">
+        <v>1</v>
       </c>
       <c r="Y68">
         <v>1</v>
@@ -5060,22 +6263,25 @@
       <c r="Z68">
         <v>8.08392333984375</v>
       </c>
-      <c r="AA68" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27">
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C69">
         <v>688499</v>
       </c>
       <c r="D69" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E69">
         <v>3.24</v>
@@ -5093,7 +6299,7 @@
         <v>70599.91</v>
       </c>
       <c r="J69" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K69">
         <v>30</v>
@@ -5113,8 +6319,23 @@
       <c r="P69">
         <v>0.12</v>
       </c>
+      <c r="Q69">
+        <v>3.4</v>
+      </c>
+      <c r="R69">
+        <v>60.29</v>
+      </c>
+      <c r="S69">
+        <v>11.13</v>
+      </c>
       <c r="V69" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>1</v>
       </c>
       <c r="Y69">
         <v>0</v>
@@ -5122,22 +6343,25 @@
       <c r="Z69">
         <v>5.9184889793396</v>
       </c>
-      <c r="AA69" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27">
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C70">
         <v>688502</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E70">
         <v>-0.55</v>
@@ -5155,7 +6379,7 @@
         <v>66095.24000000001</v>
       </c>
       <c r="J70" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -5175,8 +6399,23 @@
       <c r="P70">
         <v>0.44</v>
       </c>
+      <c r="Q70">
+        <v>-2</v>
+      </c>
+      <c r="R70">
+        <v>380</v>
+      </c>
+      <c r="S70">
+        <v>8.25</v>
+      </c>
       <c r="V70" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="W70">
+        <v>1</v>
+      </c>
+      <c r="X70">
+        <v>1</v>
       </c>
       <c r="Y70">
         <v>1</v>
@@ -5184,22 +6423,25 @@
       <c r="Z70">
         <v>6.337553024291992</v>
       </c>
-      <c r="AA70" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27">
+      <c r="AA70">
+        <v>1</v>
+      </c>
+      <c r="AB70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C71">
         <v>688585</v>
       </c>
       <c r="D71" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E71">
         <v>18.76</v>
@@ -5217,7 +6459,7 @@
         <v>138766.45</v>
       </c>
       <c r="J71" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K71">
         <v>4</v>
@@ -5237,8 +6479,23 @@
       <c r="P71">
         <v>-0.03</v>
       </c>
+      <c r="Q71">
+        <v>6.19</v>
+      </c>
+      <c r="R71">
+        <v>93.5</v>
+      </c>
+      <c r="S71">
+        <v>19.18</v>
+      </c>
       <c r="V71" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W71">
+        <v>1</v>
+      </c>
+      <c r="X71">
+        <v>1</v>
       </c>
       <c r="Y71">
         <v>1</v>
@@ -5246,22 +6503,25 @@
       <c r="Z71">
         <v>5.534931182861328</v>
       </c>
-      <c r="AA71" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27">
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C72">
         <v>688660</v>
       </c>
       <c r="D72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E72">
         <v>16.46</v>
@@ -5279,7 +6539,7 @@
         <v>123912.03</v>
       </c>
       <c r="J72" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K72">
         <v>4</v>
@@ -5299,8 +6559,23 @@
       <c r="P72">
         <v>-0.12</v>
       </c>
+      <c r="Q72">
+        <v>10.05</v>
+      </c>
+      <c r="R72">
+        <v>17.19</v>
+      </c>
+      <c r="S72">
+        <v>14.6</v>
+      </c>
       <c r="V72" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>1</v>
       </c>
       <c r="Y72">
         <v>0</v>
@@ -5308,22 +6583,25 @@
       <c r="Z72">
         <v>6.48719310760498</v>
       </c>
-      <c r="AA72" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27">
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C73">
         <v>688668</v>
       </c>
       <c r="D73" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E73">
         <v>3.76</v>
@@ -5341,7 +6619,7 @@
         <v>63978.09</v>
       </c>
       <c r="J73" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K73">
         <v>8</v>
@@ -5361,8 +6639,23 @@
       <c r="P73">
         <v>-0.04</v>
       </c>
+      <c r="Q73">
+        <v>8.57</v>
+      </c>
+      <c r="R73">
+        <v>89</v>
+      </c>
+      <c r="S73">
+        <v>10.39</v>
+      </c>
       <c r="V73" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="W73">
+        <v>1</v>
+      </c>
+      <c r="X73">
+        <v>1</v>
       </c>
       <c r="Y73">
         <v>1</v>
@@ -5370,8 +6663,11 @@
       <c r="Z73">
         <v>2.859709739685059</v>
       </c>
-      <c r="AA73" t="s">
-        <v>148</v>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
